--- a/REGULAR/MAYORS OFFICE/FERMA, ARCELI.xlsx
+++ b/REGULAR/MAYORS OFFICE/FERMA, ARCELI.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="445">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4153,9 +4153,9 @@
   <dimension ref="A2:K609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4035" topLeftCell="A527" activePane="bottomLeft"/>
+      <pane ySplit="4035" topLeftCell="A548" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="F542" sqref="F542"/>
+      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,7 +4318,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>123.41400000000004</v>
+        <v>125.91400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4328,7 +4328,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.375</v>
+        <v>268.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12369,7 +12369,7 @@
       <c r="H359" s="39"/>
       <c r="I359" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>267.375</v>
+        <v>268.875</v>
       </c>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
@@ -16995,13 +16995,15 @@
         <v>45170</v>
       </c>
       <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
@@ -17013,13 +17015,15 @@
         <v>45200</v>
       </c>
       <c r="B566" s="20"/>
-      <c r="C566" s="13"/>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
@@ -17030,7 +17034,9 @@
       <c r="A567" s="40">
         <v>45231</v>
       </c>
-      <c r="B567" s="20"/>
+      <c r="B567" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
@@ -17039,10 +17045,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H567" s="39"/>
+      <c r="H567" s="39">
+        <v>1</v>
+      </c>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="50">
+        <v>45233</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
@@ -17920,7 +17930,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>390.78900000000004</v>
+        <v>394.78900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
